--- a/reference/d/d.xlsx
+++ b/reference/d/d.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -79,31 +79,37 @@
     <t xml:space="preserve">aa</t>
   </si>
   <si>
-    <t xml:space="preserve">ab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">af</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aj</t>
+    <t xml:space="preserve">aas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaj</t>
   </si>
 </sst>
 </file>
@@ -303,10 +309,10 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.54"/>
@@ -423,7 +429,7 @@
         <v>as</v>
       </c>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -438,17 +444,11 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="I5" s="1" t="str">
-        <f aca="false">$C$2</f>
-        <v>a</v>
-      </c>
-      <c r="J5" s="1" t="str">
-        <f aca="false">$C$3</f>
-        <v>as</v>
-      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -467,21 +467,23 @@
       </c>
       <c r="F6" s="3"/>
       <c r="I6" s="1" t="str">
-        <f aca="false">$C$2</f>
-        <v>a</v>
+        <f aca="false">$C$5</f>
+        <v>aas</v>
       </c>
       <c r="J6" s="1" t="str">
-        <f aca="false">$C$3</f>
-        <v>as</v>
-      </c>
+        <f aca="false">$C$4</f>
+        <v>aa</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <f aca="false">ROW()</f>
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
@@ -492,12 +494,12 @@
       </c>
       <c r="F7" s="3"/>
       <c r="I7" s="1" t="str">
-        <f aca="false">$C$2</f>
-        <v>a</v>
+        <f aca="false">$C$5</f>
+        <v>aas</v>
       </c>
       <c r="J7" s="1" t="str">
-        <f aca="false">$C$3</f>
-        <v>as</v>
+        <f aca="false">$C$4</f>
+        <v>aa</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -505,8 +507,8 @@
         <f aca="false">ROW()</f>
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>22</v>
@@ -517,12 +519,12 @@
       </c>
       <c r="F8" s="3"/>
       <c r="I8" s="1" t="str">
-        <f aca="false">$C$2</f>
-        <v>a</v>
+        <f aca="false">$C$5</f>
+        <v>aas</v>
       </c>
       <c r="J8" s="1" t="str">
-        <f aca="false">$C$3</f>
-        <v>as</v>
+        <f aca="false">$C$4</f>
+        <v>aa</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -530,8 +532,8 @@
         <f aca="false">ROW()</f>
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>23</v>
@@ -542,12 +544,12 @@
       </c>
       <c r="F9" s="3"/>
       <c r="I9" s="1" t="str">
-        <f aca="false">$C$2</f>
-        <v>a</v>
+        <f aca="false">$C$5</f>
+        <v>aas</v>
       </c>
       <c r="J9" s="1" t="str">
-        <f aca="false">$C$3</f>
-        <v>as</v>
+        <f aca="false">$C$4</f>
+        <v>aa</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -555,8 +557,8 @@
         <f aca="false">ROW()</f>
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>15</v>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>24</v>
@@ -567,12 +569,12 @@
       </c>
       <c r="F10" s="3"/>
       <c r="I10" s="1" t="str">
-        <f aca="false">$C$2</f>
-        <v>a</v>
+        <f aca="false">$C$5</f>
+        <v>aas</v>
       </c>
       <c r="J10" s="1" t="str">
-        <f aca="false">$C$3</f>
-        <v>as</v>
+        <f aca="false">$C$4</f>
+        <v>aa</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -580,8 +582,8 @@
         <f aca="false">ROW()</f>
         <v>11</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>15</v>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>25</v>
@@ -592,12 +594,12 @@
       </c>
       <c r="F11" s="3"/>
       <c r="I11" s="1" t="str">
-        <f aca="false">$C$2</f>
-        <v>a</v>
+        <f aca="false">$C$5</f>
+        <v>aas</v>
       </c>
       <c r="J11" s="1" t="str">
-        <f aca="false">$C$3</f>
-        <v>as</v>
+        <f aca="false">$C$4</f>
+        <v>aa</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -605,8 +607,8 @@
         <f aca="false">ROW()</f>
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
@@ -617,15 +619,13 @@
       </c>
       <c r="F12" s="3"/>
       <c r="I12" s="1" t="str">
-        <f aca="false">$C$2</f>
-        <v>a</v>
+        <f aca="false">$C$5</f>
+        <v>aas</v>
       </c>
       <c r="J12" s="1" t="str">
-        <f aca="false">$C$3</f>
-        <v>as</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+        <f aca="false">$C$4</f>
+        <v>aa</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -644,18 +644,68 @@
       </c>
       <c r="F13" s="3"/>
       <c r="I13" s="1" t="str">
-        <f aca="false">$C$2</f>
-        <v>a</v>
+        <f aca="false">$C$5</f>
+        <v>aas</v>
       </c>
       <c r="J13" s="1" t="str">
-        <f aca="false">$C$3</f>
-        <v>as</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+        <f aca="false">$C$4</f>
+        <v>aa</v>
+      </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <f aca="false">ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="I14" s="1" t="str">
+        <f aca="false">$C$5</f>
+        <v>aas</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f aca="false">$C$4</f>
+        <v>aa</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <f aca="false">ROW()</f>
+        <v>15</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="I15" s="1" t="str">
+        <f aca="false">$C$5</f>
+        <v>aas</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f aca="false">$C$4</f>
+        <v>aa</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1447,8 +1497,8 @@
     <row r="804" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="805" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="806" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="807" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="808" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
